--- a/Example/Filled/2023_Q4___BSP_AR1_ST.w.8.7.5.xlsx
+++ b/Example/Filled/2023_Q4___BSP_AR1_ST.w.8.7.5.xlsx
@@ -2919,37 +2919,37 @@
       </c>
       <c r="N12" s="216" t="inlineStr">
         <is>
-          <t>+48 506 297 621</t>
+          <t xml:space="preserve">+48 506 297 621 </t>
         </is>
       </c>
       <c r="O12" s="217" t="inlineStr">
         <is>
-          <t>+48 506 297 621</t>
+          <t xml:space="preserve">+48 506 297 621 </t>
         </is>
       </c>
       <c r="P12" s="217" t="inlineStr">
         <is>
-          <t>+48 506 297 621</t>
+          <t xml:space="preserve">+48 506 297 621 </t>
         </is>
       </c>
       <c r="Q12" s="217" t="inlineStr">
         <is>
-          <t>+48 506 297 621</t>
+          <t xml:space="preserve">+48 506 297 621 </t>
         </is>
       </c>
       <c r="R12" s="217" t="inlineStr">
         <is>
-          <t>+48 506 297 621</t>
+          <t xml:space="preserve">+48 506 297 621 </t>
         </is>
       </c>
       <c r="S12" s="217" t="inlineStr">
         <is>
-          <t>+48 506 297 621</t>
+          <t xml:space="preserve">+48 506 297 621 </t>
         </is>
       </c>
       <c r="T12" s="217" t="inlineStr">
         <is>
-          <t>+48 506 297 621</t>
+          <t xml:space="preserve">+48 506 297 621 </t>
         </is>
       </c>
     </row>
